--- a/Article/Table_1.xlsx
+++ b/Article/Table_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23520" yWindow="10780" windowWidth="18580" windowHeight="9260" tabRatio="500"/>
+    <workbookView xWindow="6140" yWindow="8700" windowWidth="18580" windowHeight="9260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Freireich</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Groups</t>
+  </si>
+  <si>
+    <t>&lt;.001</t>
   </si>
 </sst>
 </file>
@@ -70,7 +73,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -122,12 +124,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -472,7 +477,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I3" sqref="I3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -540,6 +545,18 @@
       <c r="E3">
         <v>0.23930000000000001</v>
       </c>
+      <c r="F3" s="3">
+        <v>4.1699999999999997E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16.792899999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.1699999999999997E-5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>16.8</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
@@ -554,10 +571,16 @@
       <c r="D4">
         <v>24.847200000000001</v>
       </c>
-      <c r="I4" s="1">
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <v>24.847200000000001</v>
+      </c>
+      <c r="I4" s="3">
         <v>4.0199999999999996E-6</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="4">
         <v>24.8</v>
       </c>
     </row>
@@ -577,6 +600,18 @@
       <c r="E5">
         <v>0.62080000000000002</v>
       </c>
+      <c r="F5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="G5" s="4">
+        <v>6.6275000000000004</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="J5" s="4">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
@@ -594,6 +629,18 @@
       <c r="E6">
         <v>0.38129999999999997</v>
       </c>
+      <c r="F6" s="3">
+        <v>3.0909999999999998E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.0143</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3.0899999999999998E-4</v>
+      </c>
+      <c r="J6" s="4">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
@@ -607,6 +654,18 @@
       </c>
       <c r="D7">
         <v>16.778300000000002</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2.273E-4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16.778300000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.2699999999999999E-4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>
